--- a/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/prlfr_data.xlsx
+++ b/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/prlfr_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-2xGOT-KO_characterization/143B-2xGOT-KO_Rotenone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/143B-GOT-DKO_characterization/143B-2xGOT-KO_Rotenone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539468F-DC31-F247-B229-0652B673139E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D2960-4026-8647-B9A9-568E3C55EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1260" windowWidth="27640" windowHeight="16540" xr2:uid="{C7E7C0D3-1C0F-A54E-A87E-FD1119821474}"/>
+    <workbookView xWindow="6520" yWindow="1260" windowWidth="27640" windowHeight="16540" xr2:uid="{C7E7C0D3-1C0F-A54E-A87E-FD1119821474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
   <si>
     <t>Pyr</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>1 mM</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03DAF9-1E6F-FD41-A49C-0C6D4A7DC094}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +421,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,8 +435,11 @@
       <c r="C2">
         <v>1.1678998889279368</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -440,8 +449,11 @@
       <c r="C3">
         <v>1.1902158196076185</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -451,8 +463,11 @@
       <c r="C4">
         <v>0.96398295198372486</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -462,8 +477,11 @@
       <c r="C5">
         <v>0.95678393537602824</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -473,8 +491,11 @@
       <c r="C6">
         <v>0.80713758225984955</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -484,8 +505,11 @@
       <c r="C7">
         <v>0.69072228316024664</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -495,8 +519,11 @@
       <c r="C8">
         <v>0.57644295919210631</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -506,8 +533,11 @@
       <c r="C9">
         <v>0.56183650353293468</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -517,8 +547,11 @@
       <c r="C10">
         <v>0.4113990816091474</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -528,8 +561,11 @@
       <c r="C11">
         <v>0.45713092569574015</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -539,8 +575,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -550,8 +589,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -561,8 +603,11 @@
       <c r="C14">
         <v>1.3065895668299889</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -572,8 +617,11 @@
       <c r="C15">
         <v>1.3184462092259617</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -583,8 +631,11 @@
       <c r="C16">
         <v>1.2097286232453124</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -594,8 +645,11 @@
       <c r="C17">
         <v>1.22918511096147</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -605,8 +659,11 @@
       <c r="C18">
         <v>1.0736736287784099</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -616,8 +673,11 @@
       <c r="C19">
         <v>1.0874210864708291</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -627,8 +687,11 @@
       <c r="C20">
         <v>0.28862481529741707</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -638,8 +701,11 @@
       <c r="C21">
         <v>0.15628958980101018</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -649,8 +715,11 @@
       <c r="C22">
         <v>0.10991233170779585</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -660,8 +729,11 @@
       <c r="C23">
         <v>5.4492027595658299E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -671,8 +743,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -681,6 +756,9 @@
       </c>
       <c r="C25">
         <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5994</v>
       </c>
     </row>
   </sheetData>
